--- a/Empirical Study Results.xlsx
+++ b/Empirical Study Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Master\Research\Project\Advertisement Accessibility\Supplementary Material\Advertisement-Accessibility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Master\Research\Project\Advertisement Accessibility\SP\Advertisement-Accessibility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF54C10-B6DE-4C69-9B8D-0FD7425FF3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260067A-C6C2-4D14-A677-83DAAC9A23DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8955" yWindow="4065" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -695,9 +695,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,8 +915,8 @@
   </sheetPr>
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B337" sqref="B337:B501"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="C399" sqref="C399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8603,7 +8600,7 @@
         <v>20</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
@@ -8875,7 +8872,7 @@
         <v>20</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
@@ -8909,7 +8906,7 @@
         <v>20</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
@@ -14395,7 +14392,7 @@
       <c r="B397" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C397" s="7" t="s">
+      <c r="C397" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D397" s="3">
